--- a/DashBoard.xlsx
+++ b/DashBoard.xlsx
@@ -1,151 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\al amrycia\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B7DB07-A7C5-4DD2-8BD8-5A0FA43E69EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>MONDAY</t>
-  </si>
-  <si>
-    <t>THURESDAY</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
-    <t>TUESEDAY</t>
-  </si>
-  <si>
-    <t>BILL</t>
-  </si>
-  <si>
-    <t>2025-03-10 22:46:01 - Absent</t>
-  </si>
-  <si>
-    <t>2025-03-10 22:50:00 - Absent</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>2025-03-10 22:44:14 - Present</t>
-  </si>
-  <si>
-    <t>KHALED EISA</t>
-  </si>
-  <si>
-    <t>STEVE</t>
-  </si>
-  <si>
-    <t>2025-03-10 22:45:16 - Late</t>
-  </si>
-  <si>
-    <t>2025-03-10 22:49:16 - Late</t>
-  </si>
-  <si>
-    <t>YOUSEF AHMED</t>
-  </si>
-  <si>
-    <t>YOUSEF</t>
-  </si>
-  <si>
-    <t>2025-03-10 22:44:07 - Present</t>
-  </si>
-  <si>
-    <t>2025-03-10 22:48:26 - Present</t>
-  </si>
-  <si>
-    <t>معدل الغياب الاسبوعي</t>
-  </si>
-  <si>
-    <t>معدل التأخير الاسبوعي</t>
-  </si>
-  <si>
-    <t>معدل الحضور الاسبوعي</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -173,25 +88,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -199,16 +120,75 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -474,206 +454,674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="43.85546875" customWidth="1" min="2" max="2"/>
+    <col width="36.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="27" bestFit="1" customWidth="1" min="4" max="7"/>
+    <col width="28.7109375" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>THURESDAY</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>TUESEDAY</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>معدل الحضور الاسبوعي</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BILL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1002560204</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="str">
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:56:18 - Absent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="H2" s="6">
         <f>TEXT((COUNTIF(C2:G7,"*Present")/COUNTA(C2:G7))*100,"0.0") &amp; "%"</f>
-        <v>20.0%</v>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:08:59 - Absent</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:24:08 - Absent</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:26:55 - Absent</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ELON</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1080849779</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:56:18 - Absent</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>معدل الغياب الاسبوعي</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:08:59 - Absent</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:24:08 - Absent</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:26:55 - Absent</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>KHALED EISA</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1080849779</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="str">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:56:18 - Absent</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="H4" s="6">
         <f>TEXT((COUNTIF(C2:G7,"*Absent")/COUNTA(C2:G7))*100,"0.0") &amp; "%"</f>
-        <v>63.3%</v>
+        <v/>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:08:59 - Absent</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:24:08 - Absent</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:26:55 - Absent</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>STEVE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1080849779</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:56:18 - Absent</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>معدل التأخير الاسبوعي</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:08:59 - Absent</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:24:08 - Absent</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:26:55 - Absent</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>YOUSEF AHMED</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1080849779</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6" t="str">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:56:18 - Absent</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="H6" s="6">
         <f>TEXT((COUNTIF(C2:G7,"*Late")/COUNTA(C2:G7))*100,"0.0") &amp; "%"</f>
-        <v>16.7%</v>
+        <v/>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:24:08 - Absent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:26:55 - Absent</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>YOUSEF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1080849779</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:56:18 - Absent</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:24:08 - Absent</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:26:55 - Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:37 - Absent</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:58:58 - Absent</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:00:35 - Absent</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:32 - Absent</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:33 - Absent</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:03:33 - Absent</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:00 - Absent</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:40 - Absent</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:41 - Absent</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:41 - Absent</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:41 - Absent</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:09:41 - Absent</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>2025-10-11 23:14:30 - Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13" ht="26.25" customHeight="1">
+      <c r="E13" s="8">
+        <f>COUNTIF(C3:G3,"*Absent")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>